--- a/Modèle-audit-SEO (1) (version 1) (version 1).xlsx
+++ b/Modèle-audit-SEO (1) (version 1) (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youss\Desktop\DEV Web\Starting website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678FB273-628E-4459-8F27-F08BB263B625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360AD234-2D33-4DE6-8CEF-E984D1B6750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>Catégorie</t>
   </si>
@@ -54,237 +54,48 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>page 2</t>
-  </si>
-  <si>
-    <t>titre onglet</t>
-  </si>
-  <si>
-    <t>balise canonique referencement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taille images non adapté (à adapter à la taille de la div) </t>
-  </si>
-  <si>
-    <t>suppression espace saut de ligne</t>
-  </si>
-  <si>
-    <t>ajout de la langue francaise</t>
-  </si>
-  <si>
-    <t>manque focus  navigation touche Tab</t>
-  </si>
-  <si>
-    <t>balise meta description vide</t>
-  </si>
-  <si>
-    <t>ordre des titres non respecté</t>
-  </si>
-  <si>
-    <t>liens page 2 insignifiant</t>
-  </si>
-  <si>
-    <t>manque nom pour decrire la page 2</t>
-  </si>
-  <si>
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>mettre un nom pour decrire la page 2</t>
-  </si>
-  <si>
     <t>Ajouter "Contact"</t>
   </si>
   <si>
-    <t>le formulaire n'est pas très visible pas de description de la page, bouton accueil non visible</t>
-  </si>
-  <si>
-    <t>faire un formulaire visible, decrire la page, faire en sorte que les elements de la page soit visible</t>
-  </si>
-  <si>
     <t>Seo</t>
   </si>
   <si>
-    <t>manque titre dans l'onglet de la page, cela reduit la performance SEO</t>
-  </si>
-  <si>
     <t>Toujours mettre un titre dans la balise Title</t>
   </si>
   <si>
-    <t xml:space="preserve">taille d'image non adapté reduit la performance du site </t>
-  </si>
-  <si>
-    <t xml:space="preserve">definir une taille d'image afin permettant de ne pas reduire les performances du site, la taille doit etre egale à la div </t>
-  </si>
-  <si>
     <t>Reduire la taille des images</t>
   </si>
   <si>
-    <t xml:space="preserve"> balise meta robot manquante </t>
-  </si>
-  <si>
-    <t>cette balise permet au robot d'analyser la page et permettre l'indexation</t>
-  </si>
-  <si>
     <t>Ajouter cette balise pour lindexation</t>
   </si>
   <si>
     <t>Ajouter la balise meta robot</t>
   </si>
   <si>
-    <t>cette balise indique la page principale à indexer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajouter cette balise pour indiquer au robot la page principale à indexer </t>
   </si>
   <si>
     <t>Ajouter cette balise</t>
   </si>
   <si>
-    <t>cela augmente la taille des fichier</t>
-  </si>
-  <si>
-    <t>toujours supprimer les espaces et saut de lignes inutiles</t>
-  </si>
-  <si>
-    <t>manque balise de description du site internet</t>
-  </si>
-  <si>
-    <t>cette balise permet d'ajouter des mots clés pour augmenter le SEO</t>
-  </si>
-  <si>
-    <t>mettre une description</t>
-  </si>
-  <si>
-    <t>seo</t>
-  </si>
-  <si>
     <t>accessibilité</t>
   </si>
   <si>
-    <t>meta name keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">footer </t>
-  </si>
-  <si>
-    <t>contraste</t>
-  </si>
-  <si>
-    <t>cache</t>
-  </si>
-  <si>
-    <t>texte cache  class keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balise br </t>
-  </si>
-  <si>
-    <t>manque indication sur le langage</t>
-  </si>
-  <si>
     <t>Toujours la balise langue pour indiquer aux moteurs de recherche qu'elle est la langue sur chaque page</t>
   </si>
   <si>
-    <t>ajouter Fr</t>
-  </si>
-  <si>
-    <t>manque indication lorsque l'on navigue avec le clavier</t>
-  </si>
-  <si>
-    <t>mettre le focus pour ameliorer l'acessibilité</t>
-  </si>
-  <si>
-    <t>ajouter le focus</t>
-  </si>
-  <si>
-    <t>on retrouve les meme mots cles</t>
-  </si>
-  <si>
-    <t>diversifier les mots cles afin d'ameliorer le referencement</t>
-  </si>
-  <si>
-    <t>ajouter d'autre mots clés</t>
-  </si>
-  <si>
     <t>Annuaire n'ayant aucun sens lien sur des sites douteux</t>
   </si>
   <si>
     <t>Eviter de mettre des liens douteux sous peine d'etre penalisé dans le referencement</t>
   </si>
   <si>
-    <t>suppression de lannuaire</t>
-  </si>
-  <si>
-    <t>mauvais contraste rendant difficile la perception</t>
-  </si>
-  <si>
-    <t>jouer sur le contraste afin d'ameliorer l'experience utilisateur</t>
-  </si>
-  <si>
-    <t>modification des couleurs et taille de police</t>
-  </si>
-  <si>
-    <t>cache non present</t>
-  </si>
-  <si>
-    <t>ajouter un cache et definir un temps de mise à jour afin de precharger le page et ainsi dimminuer le temps de chargement</t>
-  </si>
-  <si>
-    <t>ajouter un cache</t>
-  </si>
-  <si>
-    <t>presence de texte caché contenant des mots cles</t>
-  </si>
-  <si>
     <t>Tentative de Black Hat qui penalise le Seo du site</t>
   </si>
   <si>
-    <t>supprimer le texte caché</t>
-  </si>
-  <si>
-    <t>presence de balise br en fin de paragraphe</t>
-  </si>
-  <si>
-    <t>les balise br utilise pour le saut de ligne sont mauvaise pour le site internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supprimer ces balise et jouer sur le padding ou le margin </t>
-  </si>
-  <si>
-    <t>on retrouve des balise titre sur des paragraphe. De plus il faut respecter l'ordre des titres</t>
-  </si>
-  <si>
-    <t>ne pas utiliser de balise titre pour les paragraphe et respecter l'ordre des titres</t>
-  </si>
-  <si>
-    <t>supprimer la balise titre sur les paragraphes et respecter l'ordre d'application des titres</t>
-  </si>
-  <si>
-    <t>images contenant des paragraphes</t>
-  </si>
-  <si>
-    <t>on retrouve des images contenant du paragraphe</t>
-  </si>
-  <si>
-    <t>ne pas mettre des image contenant du texte car cela est mauvais pour le referencement, les navigateur ne pouvant pas analyser les images</t>
-  </si>
-  <si>
-    <t>supprimer ces images est mettre du texte a la place</t>
-  </si>
-  <si>
-    <t>liens meta page 2 non accessible</t>
-  </si>
-  <si>
-    <t>lien vers les fichers javascript de la page 2 non presents dans les dossier engendrant des problèmes de navigation</t>
-  </si>
-  <si>
-    <t>mettre des liens fonctionnels</t>
-  </si>
-  <si>
-    <t>modification du nom des liens</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mettre "Chouette agence" par exemple dans la balise title principale, et "Formulaire contact" pour la page </t>
   </si>
   <si>
@@ -318,9 +129,6 @@
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast#:~:text=Le%20contraste%20des%20couleurs%20entre,'au%20moins%203%3A1.</t>
   </si>
   <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/HTTP/Caching</t>
-  </si>
-  <si>
     <t>https://www.redacteur.com/blog/seo-techniques-black-hat/</t>
   </si>
   <si>
@@ -334,6 +142,186 @@
   </si>
   <si>
     <t>https://www.alsacreations.com/tuto/lire/1370-formulaire-html5-placeholder-required-pattern.html</t>
+  </si>
+  <si>
+    <t>Liens page 2 insignifiant</t>
+  </si>
+  <si>
+    <t>Manque nom pour decrire la page 2</t>
+  </si>
+  <si>
+    <t>Mettre un nom pour decrire la page 2</t>
+  </si>
+  <si>
+    <t>Page 2</t>
+  </si>
+  <si>
+    <t>Le formulaire n'est pas très visible pas de description de la page, bouton accueil non visible</t>
+  </si>
+  <si>
+    <t>Faire un formulaire visible, decrire la page, faire en sorte que les elements de la page soit visible</t>
+  </si>
+  <si>
+    <t>Titre onglet</t>
+  </si>
+  <si>
+    <t>Manque titre dans l'onglet de la page, cela reduit la performance SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille images non adapté (à adapter à la taille de la div) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille d'image non adapté reduit la performance du site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir une taille d'image afin permettant de ne pas reduire les performances du site, la taille doit etre egale à la div </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise meta robot manquante </t>
+  </si>
+  <si>
+    <t>Cette balise permet au robot d'analyser la page et permettre l'indexation</t>
+  </si>
+  <si>
+    <t>Balise canonique referencement</t>
+  </si>
+  <si>
+    <t>Cette balise indique la page principale à indexer</t>
+  </si>
+  <si>
+    <t>Suppression espace saut de ligne</t>
+  </si>
+  <si>
+    <t>Cela augmente la taille des fichier</t>
+  </si>
+  <si>
+    <t>Toujours supprimer les espaces et saut de lignes inutiles</t>
+  </si>
+  <si>
+    <t>Supprimer les sauts de lignes</t>
+  </si>
+  <si>
+    <t>Balise meta description vide</t>
+  </si>
+  <si>
+    <t>Manque balise de description du site internet</t>
+  </si>
+  <si>
+    <t>Cette balise permet d'ajouter des mots clés pour augmenter le SEO</t>
+  </si>
+  <si>
+    <t>Mettre une description</t>
+  </si>
+  <si>
+    <t>Ajout de la langue francaise</t>
+  </si>
+  <si>
+    <t>Manque indication sur le langage</t>
+  </si>
+  <si>
+    <t>Ajouter Fr</t>
+  </si>
+  <si>
+    <t>Manque focus  navigation touche Tab</t>
+  </si>
+  <si>
+    <t>Manque indication lorsque l'on navigue avec le clavier</t>
+  </si>
+  <si>
+    <t>Mettre le focus pour ameliorer l'acessibilité</t>
+  </si>
+  <si>
+    <t>Ajouter le focus</t>
+  </si>
+  <si>
+    <t>Balise obsolète qui n'est pas reconnus par les moteurs de recherches</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser cette balise</t>
+  </si>
+  <si>
+    <t>Supprimer cette balise</t>
+  </si>
+  <si>
+    <t>Meta name keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footer </t>
+  </si>
+  <si>
+    <t>Suppression de lannuaire</t>
+  </si>
+  <si>
+    <t>Contraste</t>
+  </si>
+  <si>
+    <t>Mauvais contraste rendant difficile la perception</t>
+  </si>
+  <si>
+    <t>Jouer sur le contraste afin d'ameliorer l'experience utilisateur</t>
+  </si>
+  <si>
+    <t>Modification des couleurs et taille de police</t>
+  </si>
+  <si>
+    <t>Texte cache  class keyword</t>
+  </si>
+  <si>
+    <t>Presence de texte caché contenant des mots cles</t>
+  </si>
+  <si>
+    <t>Supprimer le texte caché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise br </t>
+  </si>
+  <si>
+    <t>Presence de balise br en fin de paragraphe</t>
+  </si>
+  <si>
+    <t>Les balise br utilise pour le saut de ligne sont mauvaise pour le site internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer ces balise et jouer sur le padding ou le margin </t>
+  </si>
+  <si>
+    <t>Ordre des titres non respecté</t>
+  </si>
+  <si>
+    <t>On retrouve des balise titre sur des paragraphe. De plus il faut respecter l'ordre des titres</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser de balise titre pour les paragraphe et respecter l'ordre des titres</t>
+  </si>
+  <si>
+    <t>Supprimer la balise titre sur les paragraphes et respecter l'ordre d'application des titres</t>
+  </si>
+  <si>
+    <t>Supprimer ces images est mettre du texte a la place</t>
+  </si>
+  <si>
+    <t>Ne pas mettre des image contenant du texte car cela est mauvais pour le referencement, les navigateur ne pouvant pas analyser les images</t>
+  </si>
+  <si>
+    <t>On retrouve des images contenant du paragraphe</t>
+  </si>
+  <si>
+    <t>Images contenant des paragraphes</t>
+  </si>
+  <si>
+    <t>Liens meta page 2 non accessible</t>
+  </si>
+  <si>
+    <t>Lien vers les fichers javascript de la page 2 non presents dans les dossier engendrant des problèmes de navigation</t>
+  </si>
+  <si>
+    <t>Mettre des liens fonctionnels</t>
+  </si>
+  <si>
+    <t>Modification du nom des liens</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/br#:~:text=Table%20of%20contents-,%3A%20l'%C3%A9l%C3%A9ment%20de%20saut%20de%20ligne,une%20adresse%20ou%20un%20po%C3%A8me).</t>
   </si>
 </sst>
 </file>
@@ -412,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,9 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -661,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -720,373 +705,359 @@
     </row>
     <row r="2" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="120" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="105" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
+      <c r="A13" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="135" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="E19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2063,7 +2034,6 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{3EF671BB-9789-426B-87A5-686363F53B1F}"/>
@@ -2075,11 +2045,11 @@
     <hyperlink ref="F12" r:id="rId7" location=":~:text=En%20SEO%2C%20les%20mots%2Dcl%C3%A9s,ou%20%22expression%20de%20recherche%22." xr:uid="{1E5D2DCC-F685-426D-B691-ED52D3004D0A}"/>
     <hyperlink ref="F13" r:id="rId8" xr:uid="{324FAE9C-3C92-42A7-B790-34AF72772E6F}"/>
     <hyperlink ref="F14" r:id="rId9" location=":~:text=Le%20contraste%20des%20couleurs%20entre,'au%20moins%203%3A1." xr:uid="{588C7096-4FB7-4966-BE91-D6137BADBB32}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{A14B9F00-7FD2-45B8-9683-7DC91F43BBEA}"/>
-    <hyperlink ref="F16" r:id="rId11" xr:uid="{FC24D15D-F7E5-4DFE-9735-2F8D66035153}"/>
-    <hyperlink ref="F18" r:id="rId12" xr:uid="{EB125280-8C42-4E22-A068-CD2C3DFA785C}"/>
-    <hyperlink ref="F19" r:id="rId13" location=":~:text=Les%20erreurs%20%C3%A0%20%C3%A9viter,-Ne%20confondez%20pas&amp;text=%C3%89vitez%20les%20images%20avec%20du,%C3%80%20%C3%A9viter%20!" xr:uid="{60EA28A6-529E-4026-A5F9-9B5319CF7297}"/>
-    <hyperlink ref="F3" r:id="rId14" xr:uid="{B6727CC2-7DCD-49A2-8854-FC6FA3B8B467}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{FC24D15D-F7E5-4DFE-9735-2F8D66035153}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{EB125280-8C42-4E22-A068-CD2C3DFA785C}"/>
+    <hyperlink ref="F18" r:id="rId12" location=":~:text=Les%20erreurs%20%C3%A0%20%C3%A9viter,-Ne%20confondez%20pas&amp;text=%C3%89vitez%20les%20images%20avec%20du,%C3%80%20%C3%A9viter%20!" xr:uid="{60EA28A6-529E-4026-A5F9-9B5319CF7297}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{B6727CC2-7DCD-49A2-8854-FC6FA3B8B467}"/>
+    <hyperlink ref="F16" r:id="rId14" location=":~:text=Table%20of%20contents-,%3A%20l'%C3%A9l%C3%A9ment%20de%20saut%20de%20ligne,une%20adresse%20ou%20un%20po%C3%A8me)." xr:uid="{12C33E5B-8559-4F6E-9836-DB3C7FED6AF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
